--- a/ConfigInput/ET/PlayerNumericConfig.xlsx
+++ b/ConfigInput/ET/PlayerNumericConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\Project\SJProject\ConfigInput\ET\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3165D2D-479C-484A-BC0B-A5D5777D2436}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C66B894D-78BF-4072-9ED5-95AEBB2270B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="990" yWindow="2370" windowWidth="25725" windowHeight="11265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2940" yWindow="2565" windowWidth="25725" windowHeight="11265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Player" sheetId="1" r:id="rId1"/>
@@ -585,7 +585,7 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -795,7 +795,7 @@
         <v>23</v>
       </c>
       <c r="D12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" s="7" t="b">
         <v>0</v>
@@ -813,7 +813,7 @@
         <v>24</v>
       </c>
       <c r="D13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" s="7" t="b">
         <v>0</v>
@@ -831,7 +831,7 @@
         <v>25</v>
       </c>
       <c r="D14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" s="7" t="b">
         <v>0</v>
@@ -849,7 +849,7 @@
         <v>26</v>
       </c>
       <c r="D15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" s="7" t="b">
         <v>0</v>
